--- a/BASE_TRAVAIL.xlsx
+++ b/BASE_TRAVAIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ff3d48526d1a/Recherche/SBG/Stat_SBG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ff3d48526d1a/Documents/GitHub/sbg-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="486" documentId="11_B2659B2388B2FB722FDC88FDC9C645169B14689E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A63950-C4E0-44F6-9EA7-019E913B8FEE}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-18615" windowWidth="29340" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BASE_TRAVAIL.xlsx
+++ b/BASE_TRAVAIL.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ff3d48526d1a/Documents/GitHub/sbg-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="11_B2659B2388B2FB722FDC88FDC9C645169B14689E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A63950-C4E0-44F6-9EA7-019E913B8FEE}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="11_B2659B2388B2FB722FDC88FDC9C645169B14689E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0470C1-3BE2-4778-B2E9-D045445BCF08}"/>
   <bookViews>
     <workbookView xWindow="-195" yWindow="-18615" windowWidth="29340" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
-    <sheet name="Résumé" sheetId="2" r:id="rId2"/>
-    <sheet name="Programmes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="457">
   <si>
     <t>inputId</t>
   </si>
@@ -754,27 +752,6 @@
   </si>
   <si>
     <t>2024-11-13T14:11:27.736Z</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>Lignes finales</t>
-  </si>
-  <si>
-    <t>Colonnes</t>
-  </si>
-  <si>
-    <t>Dossiers</t>
-  </si>
-  <si>
-    <t>Source lignes</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
   <si>
     <t>TERMINE</t>
@@ -1785,9 +1762,9 @@
   <dimension ref="A1:FQ182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1807,7 @@
   <sheetData>
     <row r="1" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1845,513 +1822,513 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BY1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="DI1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="DN1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CZ1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DC1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DE1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DK1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="DV1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DN1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="EB1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="EF1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="EU1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="EB1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="EK1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="EM1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="FA1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="ER1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="ES1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="ET1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="EX1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>135</v>
@@ -2836,7 +2813,7 @@
     </row>
     <row r="3" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B3">
         <v>135</v>
@@ -3321,7 +3298,7 @@
     </row>
     <row r="4" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>2371</v>
@@ -3806,7 +3783,7 @@
     </row>
     <row r="5" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B5">
         <v>2371</v>
@@ -4291,7 +4268,7 @@
     </row>
     <row r="6" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B6">
         <v>3238</v>
@@ -4776,7 +4753,7 @@
     </row>
     <row r="7" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B7">
         <v>5001</v>
@@ -5261,7 +5238,7 @@
     </row>
     <row r="8" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B8">
         <v>5001</v>
@@ -5731,7 +5708,7 @@
     </row>
     <row r="9" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B9">
         <v>5319</v>
@@ -6216,7 +6193,7 @@
     </row>
     <row r="10" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B10">
         <v>5319</v>
@@ -6701,7 +6678,7 @@
     </row>
     <row r="11" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B11">
         <v>6281</v>
@@ -7186,7 +7163,7 @@
     </row>
     <row r="12" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B12">
         <v>6281</v>
@@ -7671,7 +7648,7 @@
     </row>
     <row r="13" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B13">
         <v>7554</v>
@@ -8156,7 +8133,7 @@
     </row>
     <row r="14" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B14">
         <v>8133</v>
@@ -8641,7 +8618,7 @@
     </row>
     <row r="15" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B15">
         <v>8133</v>
@@ -9126,7 +9103,7 @@
     </row>
     <row r="16" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B16">
         <v>8920</v>
@@ -9611,7 +9588,7 @@
     </row>
     <row r="17" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B17">
         <v>8920</v>
@@ -10096,7 +10073,7 @@
     </row>
     <row r="18" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B18">
         <v>398</v>
@@ -10581,7 +10558,7 @@
     </row>
     <row r="19" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B19">
         <v>1257</v>
@@ -11066,7 +11043,7 @@
     </row>
     <row r="20" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B20">
         <v>1257</v>
@@ -11545,7 +11522,7 @@
     </row>
     <row r="21" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B21">
         <v>2266</v>
@@ -12030,7 +12007,7 @@
     </row>
     <row r="22" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B22">
         <v>2266</v>
@@ -12515,7 +12492,7 @@
     </row>
     <row r="23" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B23">
         <v>2494</v>
@@ -13000,7 +12977,7 @@
     </row>
     <row r="24" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B24">
         <v>2494</v>
@@ -13449,7 +13426,7 @@
     </row>
     <row r="25" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B25">
         <v>2681</v>
@@ -13934,7 +13911,7 @@
     </row>
     <row r="26" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B26">
         <v>2681</v>
@@ -14419,7 +14396,7 @@
     </row>
     <row r="27" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B27">
         <v>2837</v>
@@ -14904,7 +14881,7 @@
     </row>
     <row r="28" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B28">
         <v>3473</v>
@@ -15389,7 +15366,7 @@
     </row>
     <row r="29" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B29">
         <v>3473</v>
@@ -15874,7 +15851,7 @@
     </row>
     <row r="30" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B30">
         <v>4416</v>
@@ -16359,7 +16336,7 @@
     </row>
     <row r="31" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B31">
         <v>4416</v>
@@ -16634,7 +16611,7 @@
     </row>
     <row r="32" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B32">
         <v>7685</v>
@@ -17119,7 +17096,7 @@
     </row>
     <row r="33" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B33">
         <v>9406</v>
@@ -17604,7 +17581,7 @@
     </row>
     <row r="34" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B34">
         <v>9406</v>
@@ -18089,7 +18066,7 @@
     </row>
     <row r="35" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B35">
         <v>1876</v>
@@ -18379,7 +18356,7 @@
     </row>
     <row r="36" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B36">
         <v>5413</v>
@@ -18669,7 +18646,7 @@
     </row>
     <row r="37" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B37">
         <v>5413</v>
@@ -18893,7 +18870,7 @@
     </row>
     <row r="38" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B38">
         <v>5574</v>
@@ -19183,7 +19160,7 @@
     </row>
     <row r="39" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B39">
         <v>5574</v>
@@ -19407,7 +19384,7 @@
     </row>
     <row r="40" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B40">
         <v>7150</v>
@@ -19697,7 +19674,7 @@
     </row>
     <row r="41" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B41">
         <v>7150</v>
@@ -19921,7 +19898,7 @@
     </row>
     <row r="42" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B42">
         <v>7498</v>
@@ -20211,7 +20188,7 @@
     </row>
     <row r="43" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B43">
         <v>7498</v>
@@ -20441,7 +20418,7 @@
     </row>
     <row r="44" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B44">
         <v>7998</v>
@@ -20731,7 +20708,7 @@
     </row>
     <row r="45" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B45">
         <v>7998</v>
@@ -20955,7 +20932,7 @@
     </row>
     <row r="46" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B46">
         <v>8778</v>
@@ -21245,7 +21222,7 @@
     </row>
     <row r="47" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B47">
         <v>8778</v>
@@ -21469,7 +21446,7 @@
     </row>
     <row r="48" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B48">
         <v>362</v>
@@ -21954,7 +21931,7 @@
     </row>
     <row r="49" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B49">
         <v>411</v>
@@ -22439,7 +22416,7 @@
     </row>
     <row r="50" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B50">
         <v>411</v>
@@ -22825,7 +22802,7 @@
     </row>
     <row r="51" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B51">
         <v>856</v>
@@ -23310,7 +23287,7 @@
     </row>
     <row r="52" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B52">
         <v>856</v>
@@ -23735,7 +23712,7 @@
     </row>
     <row r="53" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B53">
         <v>1817</v>
@@ -24220,7 +24197,7 @@
     </row>
     <row r="54" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B54">
         <v>1817</v>
@@ -24705,7 +24682,7 @@
     </row>
     <row r="55" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B55">
         <v>2113</v>
@@ -25190,7 +25167,7 @@
     </row>
     <row r="56" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B56">
         <v>3542</v>
@@ -25675,7 +25652,7 @@
     </row>
     <row r="57" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B57">
         <v>3542</v>
@@ -26160,7 +26137,7 @@
     </row>
     <row r="58" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B58">
         <v>3585</v>
@@ -26645,7 +26622,7 @@
     </row>
     <row r="59" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B59">
         <v>3585</v>
@@ -27130,7 +27107,7 @@
     </row>
     <row r="60" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B60">
         <v>3955</v>
@@ -27615,7 +27592,7 @@
     </row>
     <row r="61" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B61">
         <v>3955</v>
@@ -28088,7 +28065,7 @@
     </row>
     <row r="62" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B62">
         <v>4655</v>
@@ -28573,7 +28550,7 @@
     </row>
     <row r="63" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B63">
         <v>4655</v>
@@ -29058,7 +29035,7 @@
     </row>
     <row r="64" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B64">
         <v>4708</v>
@@ -29543,7 +29520,7 @@
     </row>
     <row r="65" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B65">
         <v>5422</v>
@@ -30028,7 +30005,7 @@
     </row>
     <row r="66" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B66">
         <v>5857</v>
@@ -30513,7 +30490,7 @@
     </row>
     <row r="67" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B67">
         <v>5857</v>
@@ -30998,7 +30975,7 @@
     </row>
     <row r="68" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B68">
         <v>6002</v>
@@ -31483,7 +31460,7 @@
     </row>
     <row r="69" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B69">
         <v>6002</v>
@@ -31899,7 +31876,7 @@
     </row>
     <row r="70" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B70">
         <v>6169</v>
@@ -32384,7 +32361,7 @@
     </row>
     <row r="71" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B71">
         <v>6169</v>
@@ -32869,7 +32846,7 @@
     </row>
     <row r="72" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B72">
         <v>6511</v>
@@ -33354,7 +33331,7 @@
     </row>
     <row r="73" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B73">
         <v>6868</v>
@@ -33839,7 +33816,7 @@
     </row>
     <row r="74" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B74">
         <v>6868</v>
@@ -34324,7 +34301,7 @@
     </row>
     <row r="75" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B75">
         <v>7139</v>
@@ -34809,7 +34786,7 @@
     </row>
     <row r="76" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B76">
         <v>7139</v>
@@ -35294,7 +35271,7 @@
     </row>
     <row r="77" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B77">
         <v>7454</v>
@@ -35779,7 +35756,7 @@
     </row>
     <row r="78" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B78">
         <v>7908</v>
@@ -36264,7 +36241,7 @@
     </row>
     <row r="79" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B79">
         <v>7908</v>
@@ -36749,7 +36726,7 @@
     </row>
     <row r="80" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B80">
         <v>8184</v>
@@ -37234,7 +37211,7 @@
     </row>
     <row r="81" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B81">
         <v>8184</v>
@@ -37719,7 +37696,7 @@
     </row>
     <row r="82" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B82">
         <v>8460</v>
@@ -38204,7 +38181,7 @@
     </row>
     <row r="83" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B83">
         <v>9090</v>
@@ -38689,7 +38666,7 @@
     </row>
     <row r="84" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B84">
         <v>9090</v>
@@ -39174,7 +39151,7 @@
     </row>
     <row r="85" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B85">
         <v>9354</v>
@@ -39656,7 +39633,7 @@
     </row>
     <row r="86" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B86">
         <v>2815</v>
@@ -39946,7 +39923,7 @@
     </row>
     <row r="87" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B87">
         <v>2815</v>
@@ -40170,7 +40147,7 @@
     </row>
     <row r="88" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B88">
         <v>3061</v>
@@ -40460,7 +40437,7 @@
     </row>
     <row r="89" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B89">
         <v>3061</v>
@@ -40750,7 +40727,7 @@
     </row>
     <row r="90" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B90">
         <v>3767</v>
@@ -41040,7 +41017,7 @@
     </row>
     <row r="91" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B91">
         <v>3767</v>
@@ -41330,7 +41307,7 @@
     </row>
     <row r="92" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B92">
         <v>5484</v>
@@ -41620,7 +41597,7 @@
     </row>
     <row r="93" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B93">
         <v>5484</v>
@@ -41874,7 +41851,7 @@
     </row>
     <row r="94" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B94">
         <v>5545</v>
@@ -42164,7 +42141,7 @@
     </row>
     <row r="95" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B95">
         <v>5545</v>
@@ -42388,7 +42365,7 @@
     </row>
     <row r="96" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B96">
         <v>5991</v>
@@ -42678,7 +42655,7 @@
     </row>
     <row r="97" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B97">
         <v>5991</v>
@@ -42968,7 +42945,7 @@
     </row>
     <row r="98" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B98">
         <v>7027</v>
@@ -43258,7 +43235,7 @@
     </row>
     <row r="99" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B99">
         <v>7027</v>
@@ -43512,7 +43489,7 @@
     </row>
     <row r="100" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B100">
         <v>7150</v>
@@ -43802,7 +43779,7 @@
     </row>
     <row r="101" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B101">
         <v>7150</v>
@@ -44092,7 +44069,7 @@
     </row>
     <row r="102" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B102">
         <v>7189</v>
@@ -44382,7 +44359,7 @@
     </row>
     <row r="103" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B103">
         <v>7189</v>
@@ -44672,7 +44649,7 @@
     </row>
     <row r="104" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B104">
         <v>9548</v>
@@ -44962,7 +44939,7 @@
     </row>
     <row r="105" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B105">
         <v>461</v>
@@ -45246,7 +45223,7 @@
     </row>
     <row r="106" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B106">
         <v>461</v>
@@ -45464,7 +45441,7 @@
     </row>
     <row r="107" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B107">
         <v>2624</v>
@@ -45748,7 +45725,7 @@
     </row>
     <row r="108" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B108">
         <v>2624</v>
@@ -45966,7 +45943,7 @@
     </row>
     <row r="109" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B109">
         <v>3779</v>
@@ -46250,7 +46227,7 @@
     </row>
     <row r="110" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B110">
         <v>3779</v>
@@ -46468,7 +46445,7 @@
     </row>
     <row r="111" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B111">
         <v>4325</v>
@@ -46749,7 +46726,7 @@
     </row>
     <row r="112" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B112">
         <v>4966</v>
@@ -47033,7 +47010,7 @@
     </row>
     <row r="113" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B113">
         <v>4966</v>
@@ -47251,7 +47228,7 @@
     </row>
     <row r="114" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B114">
         <v>6494</v>
@@ -47535,7 +47512,7 @@
     </row>
     <row r="115" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B115">
         <v>6494</v>
@@ -47753,7 +47730,7 @@
     </row>
     <row r="116" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B116">
         <v>7182</v>
@@ -48037,7 +48014,7 @@
     </row>
     <row r="117" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B117">
         <v>7182</v>
@@ -48255,7 +48232,7 @@
     </row>
     <row r="118" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B118">
         <v>8492</v>
@@ -48539,7 +48516,7 @@
     </row>
     <row r="119" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B119">
         <v>1049</v>
@@ -48847,7 +48824,7 @@
     </row>
     <row r="120" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B120">
         <v>1049</v>
@@ -49155,7 +49132,7 @@
     </row>
     <row r="121" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B121">
         <v>2327</v>
@@ -49379,7 +49356,7 @@
     </row>
     <row r="122" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B122">
         <v>3321</v>
@@ -49687,7 +49664,7 @@
     </row>
     <row r="123" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B123">
         <v>3321</v>
@@ -49995,7 +49972,7 @@
     </row>
     <row r="124" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B124">
         <v>3620</v>
@@ -50093,7 +50070,7 @@
     </row>
     <row r="125" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B125">
         <v>6039</v>
@@ -50401,7 +50378,7 @@
     </row>
     <row r="126" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B126">
         <v>6039</v>
@@ -50709,7 +50686,7 @@
     </row>
     <row r="127" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B127">
         <v>6253</v>
@@ -51017,7 +50994,7 @@
     </row>
     <row r="128" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B128">
         <v>6253</v>
@@ -51325,7 +51302,7 @@
     </row>
     <row r="129" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B129">
         <v>8552</v>
@@ -51633,7 +51610,7 @@
     </row>
     <row r="130" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B130">
         <v>8552</v>
@@ -51941,7 +51918,7 @@
     </row>
     <row r="131" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B131">
         <v>8714</v>
@@ -52249,7 +52226,7 @@
     </row>
     <row r="132" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B132">
         <v>8714</v>
@@ -52557,7 +52534,7 @@
     </row>
     <row r="133" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B133">
         <v>8738</v>
@@ -52835,7 +52812,7 @@
     </row>
     <row r="134" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B134">
         <v>9071</v>
@@ -53143,7 +53120,7 @@
     </row>
     <row r="135" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B135">
         <v>9071</v>
@@ -53451,7 +53428,7 @@
     </row>
     <row r="136" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B136">
         <v>480</v>
@@ -53735,7 +53712,7 @@
     </row>
     <row r="137" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B137">
         <v>868</v>
@@ -54019,7 +53996,7 @@
     </row>
     <row r="138" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B138">
         <v>1829</v>
@@ -54303,7 +54280,7 @@
     </row>
     <row r="139" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B139">
         <v>1829</v>
@@ -54521,7 +54498,7 @@
     </row>
     <row r="140" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B140">
         <v>2353</v>
@@ -54805,7 +54782,7 @@
     </row>
     <row r="141" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B141">
         <v>2761</v>
@@ -55089,7 +55066,7 @@
     </row>
     <row r="142" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B142">
         <v>2797</v>
@@ -55373,7 +55350,7 @@
     </row>
     <row r="143" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B143">
         <v>3504</v>
@@ -55657,7 +55634,7 @@
     </row>
     <row r="144" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B144">
         <v>4249</v>
@@ -55941,7 +55918,7 @@
     </row>
     <row r="145" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B145">
         <v>5296</v>
@@ -56159,7 +56136,7 @@
     </row>
     <row r="146" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B146">
         <v>6683</v>
@@ -56377,7 +56354,7 @@
     </row>
     <row r="147" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B147">
         <v>6714</v>
@@ -56661,7 +56638,7 @@
     </row>
     <row r="148" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B148">
         <v>7416</v>
@@ -56945,7 +56922,7 @@
     </row>
     <row r="149" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B149">
         <v>7605</v>
@@ -57229,7 +57206,7 @@
     </row>
     <row r="150" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B150">
         <v>317</v>
@@ -57238,10 +57215,10 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E150" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -57453,7 +57430,7 @@
     </row>
     <row r="151" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B151">
         <v>3233</v>
@@ -57462,10 +57439,10 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E151" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="W151">
         <v>1</v>
@@ -57677,7 +57654,7 @@
     </row>
     <row r="152" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B152">
         <v>4740</v>
@@ -57686,10 +57663,10 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E152" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -57901,7 +57878,7 @@
     </row>
     <row r="153" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B153">
         <v>5608</v>
@@ -57910,10 +57887,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E153" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -58125,7 +58102,7 @@
     </row>
     <row r="154" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B154">
         <v>5616</v>
@@ -58134,10 +58111,10 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E154" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="W154">
         <v>2</v>
@@ -58329,7 +58306,7 @@
         <v>0</v>
       </c>
       <c r="DT154" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="DU154">
         <v>2</v>
@@ -58349,7 +58326,7 @@
     </row>
     <row r="155" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B155">
         <v>5795</v>
@@ -58358,10 +58335,10 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E155" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -58573,7 +58550,7 @@
     </row>
     <row r="156" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B156">
         <v>6009</v>
@@ -58582,10 +58559,10 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E156" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="W156">
         <v>1</v>
@@ -58797,7 +58774,7 @@
     </row>
     <row r="157" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B157">
         <v>6440</v>
@@ -58806,10 +58783,10 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="W157">
         <v>1</v>
@@ -58980,7 +58957,7 @@
         <v>1.5</v>
       </c>
       <c r="DM157" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="DN157">
         <v>2</v>
@@ -59021,7 +58998,7 @@
     </row>
     <row r="158" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B158">
         <v>6729</v>
@@ -59030,10 +59007,10 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E158" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -59245,7 +59222,7 @@
     </row>
     <row r="159" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B159">
         <v>7763</v>
@@ -59254,10 +59231,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E159" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="W159">
         <v>0</v>
@@ -59469,7 +59446,7 @@
     </row>
     <row r="160" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B160">
         <v>8229</v>
@@ -59478,10 +59455,10 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E160" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="W160">
         <v>0</v>
@@ -59652,7 +59629,7 @@
         <v>3</v>
       </c>
       <c r="DM160" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="DN160">
         <v>0</v>
@@ -59673,7 +59650,7 @@
         <v>0</v>
       </c>
       <c r="DT160" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="DU160">
         <v>2</v>
@@ -59693,7 +59670,7 @@
     </row>
     <row r="161" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B161">
         <v>9048</v>
@@ -59702,10 +59679,10 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E161" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="W161">
         <v>3</v>
@@ -59917,7 +59894,7 @@
     </row>
     <row r="162" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B162">
         <v>9098</v>
@@ -59926,10 +59903,10 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E162" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="W162">
         <v>1</v>
@@ -60141,7 +60118,7 @@
     </row>
     <row r="163" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B163">
         <v>9988</v>
@@ -60150,10 +60127,10 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E163" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="W163">
         <v>1</v>
@@ -60365,7 +60342,7 @@
     </row>
     <row r="164" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B164">
         <v>1823</v>
@@ -60374,10 +60351,10 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E164" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -60667,7 +60644,7 @@
     </row>
     <row r="165" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B165">
         <v>2440</v>
@@ -60676,10 +60653,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E165" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="W165">
         <v>1</v>
@@ -60969,7 +60946,7 @@
     </row>
     <row r="166" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B166">
         <v>2596</v>
@@ -60978,10 +60955,10 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E166" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -61271,7 +61248,7 @@
     </row>
     <row r="167" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B167">
         <v>3238</v>
@@ -61280,10 +61257,10 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E167" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="W167">
         <v>1</v>
@@ -61567,7 +61544,7 @@
     </row>
     <row r="168" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B168">
         <v>3608</v>
@@ -61576,10 +61553,10 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E168" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -61831,10 +61808,10 @@
         <v>114</v>
       </c>
       <c r="FH168" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="FI168" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="FJ168">
         <v>20</v>
@@ -61857,7 +61834,7 @@
     </row>
     <row r="169" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B169">
         <v>3719</v>
@@ -61866,10 +61843,10 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E169" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="W169">
         <v>1</v>
@@ -62159,7 +62136,7 @@
     </row>
     <row r="170" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B170">
         <v>4885</v>
@@ -62168,10 +62145,10 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E170" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -62461,7 +62438,7 @@
     </row>
     <row r="171" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B171">
         <v>6952</v>
@@ -62470,10 +62447,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E171" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -62733,7 +62710,7 @@
     </row>
     <row r="172" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B172">
         <v>7386</v>
@@ -62742,10 +62719,10 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E172" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="W172">
         <v>1</v>
@@ -63035,7 +63012,7 @@
     </row>
     <row r="173" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B173">
         <v>8930</v>
@@ -63044,10 +63021,10 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E173" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -63337,7 +63314,7 @@
     </row>
     <row r="174" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B174">
         <v>9920</v>
@@ -63346,10 +63323,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E174" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="W174">
         <v>1</v>
@@ -63639,7 +63616,7 @@
     </row>
     <row r="175" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B175">
         <v>61</v>
@@ -63648,10 +63625,10 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E175" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -63863,7 +63840,7 @@
     </row>
     <row r="176" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B176">
         <v>952</v>
@@ -63872,10 +63849,10 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E176" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="W176">
         <v>0</v>
@@ -64087,7 +64064,7 @@
     </row>
     <row r="177" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B177">
         <v>5913</v>
@@ -64096,10 +64073,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E177" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="W177">
         <v>1</v>
@@ -64291,7 +64268,7 @@
         <v>0</v>
       </c>
       <c r="DT177" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="DU177">
         <v>1</v>
@@ -64311,7 +64288,7 @@
     </row>
     <row r="178" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B178">
         <v>6717</v>
@@ -64320,10 +64297,10 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E178" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -64515,7 +64492,7 @@
         <v>1</v>
       </c>
       <c r="DT178" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="DU178">
         <v>4</v>
@@ -64535,7 +64512,7 @@
     </row>
     <row r="179" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B179">
         <v>6904</v>
@@ -64544,10 +64521,10 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E179" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -64759,7 +64736,7 @@
     </row>
     <row r="180" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B180">
         <v>7255</v>
@@ -64768,10 +64745,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E180" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="W180">
         <v>1</v>
@@ -64983,7 +64960,7 @@
     </row>
     <row r="181" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B181">
         <v>8078</v>
@@ -64992,10 +64969,10 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E181" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -65207,7 +65184,7 @@
     </row>
     <row r="182" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B182">
         <v>9973</v>
@@ -65216,10 +65193,10 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E182" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -65436,142 +65413,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>